--- a/SystemTest/SystemTestExecutionResult_LPH_V1.48.9.xlsx
+++ b/SystemTest/SystemTestExecutionResult_LPH_V1.48.9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="132">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>EMR-3251</t>
+  </si>
+  <si>
+    <t>Sudip will send</t>
   </si>
 </sst>
 </file>
@@ -806,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1777,7 @@
       <c r="A45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1786,8 +1789,12 @@
       <c r="E45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,7 +1813,9 @@
       <c r="E46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
@@ -1826,9 +1835,13 @@
       <c r="E47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="F47" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -1846,9 +1859,13 @@
       <c r="E48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="H48" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
